--- a/pred_ohlcv/54_21/2019-10-29 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LINK ohlcv.xlsx
@@ -3018,7 +3018,7 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-25430.5657877189</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-25502.3701877189</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-21398.98745977537</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-20664.60905977537</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-19925.82515977537</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-20480.80465977537</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-21766.07405977537</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-21751.71843276572</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-15028.01654444317</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-11481.80704444317</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-11927.67297042742</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-10921.91717042742</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-12100.22027042742</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-12669.17197042742</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-15912.39777042742</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-13882.58832012858</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-13898.51982012858</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-16094.57732012858</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-15777.85692012858</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-15530.42442012858</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-15156.66012012858</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-13077.50562012858</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-10551.83582012858</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-10615.57802012858</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-10987.21222012858</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-11019.96812012858</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-8888.813920128585</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-9186.956420128585</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-10393.18042012858</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6236.492435808919</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>10411.45543580892</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>8905.874671637293</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>8805.874671637293</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>8614.288171637294</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>7808.174871637294</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>9194.083771637293</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>10117.87387163729</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>9061.160271637294</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>9384.475471637295</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>14238.41257163729</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>57319.27588650385</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>57397.02868650385</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>58140.02438650385</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>72500.79669620859</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>73080.20875289341</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>73740.27465289341</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>73879.91175289341</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>74011.12205289342</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>75937.51449620861</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>77901.66193952379</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>78255.6280395238</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>78255.6280395238</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>78155.6280395238</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>78055.6280395238</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>78055.52803952379</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>78345.6280395238</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>76144.6280395238</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>76144.7280395238</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>76143.72712988159</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>75535.01742988158</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>75535.01742988158</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>78105.45602988158</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>78105.45602988158</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>78100.45451289129</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>78097.45451289129</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>77350.24591289129</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>77349.24591289129</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>80521.1690128913</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>83160.56931289131</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>82706.57931289131</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>82755.4331128913</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>83194.49541289131</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>83191.49541289131</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>83161.55711289131</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>82845.68971289131</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>82941.37001289132</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>82924.76881289131</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>82865.77551289131</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>88815.91761289131</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>91317.77746133711</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>91317.13396133711</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>91317.13396133711</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LINK ohlcv.xlsx
@@ -2966,7 +2966,7 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-23417.5677877189</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-25604.6657877189</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-25430.5657877189</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-25549.2348877189</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-25502.3701877189</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-25812.6436877189</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-20324.86095977537</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-20565.70935977537</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-19925.82515977537</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-20480.80465977537</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-20479.84675977537</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-21766.07405977537</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-21751.71843276572</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-15028.01654444317</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-11481.80704444317</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-11927.67297042742</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-10921.91717042742</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-11146.28847042742</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-12100.22027042742</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-12669.17197042742</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-15912.39777042742</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-13882.58832012858</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-13898.51982012858</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-16094.57732012858</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-15756.70882012858</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-15777.85692012858</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-15530.42442012858</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-14248.85452012858</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-15156.66012012858</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-13077.50562012858</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-10551.83582012858</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-10615.57802012858</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-10987.21222012858</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-11019.96812012858</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-8888.813920128585</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-9186.956420128585</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-10393.18042012858</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>6236.492435808919</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>10411.45543580892</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>8905.874671637293</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>8805.874671637293</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>8806.115071637294</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>8614.288171637294</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>7808.174871637294</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>7809.174871637294</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>9194.083771637293</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>10117.87387163729</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>9061.160271637294</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>9384.475471637295</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>14238.41257163729</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>60016.2955716373</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>56963.37807163729</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>57319.27588650385</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>57397.02868650385</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>58140.02438650385</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>71999.4419962086</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>71999.4419962086</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>73354.6871962086</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>73342.1282962086</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>72500.79669620859</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>73091.30875289341</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>73080.20875289341</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>73740.27465289341</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>73879.91175289341</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>74011.12205289342</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>75937.51449620861</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>75858.24883952379</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>77147.41673952379</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>77901.66193952379</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>78255.6280395238</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>78255.6280395238</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>78155.6280395238</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>78055.6280395238</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>78055.52803952379</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>78345.6280395238</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>76144.6280395238</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>76144.7280395238</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>76143.72712988159</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>75535.01742988158</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>75535.01742988158</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>78105.45602988158</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>78100.45451289129</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>83194.49541289131</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
